--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\CHLE2E\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4642556-F08B-4F3F-9663-EFEFD0008AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA21C9-FF62-4641-8950-8E1F67C0D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
     <sheet name="PatientDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,10 +442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -463,6 +463,7 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{36995908-B323-45AD-B801-59333D2349A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -470,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44536823-2B2D-4903-BEF0-941DF5C8A997}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA21C9-FF62-4641-8950-8E1F67C0D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6077976C-2AC6-49B1-9065-6C89EDC5EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -64,12 +64,6 @@
     <t>Timezone</t>
   </si>
   <si>
-    <t>Test Agency 1.1 (performance testing)</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
   </si>
   <si>
     <t>Chennai</t>
-  </si>
-  <si>
-    <t>+917676567656</t>
-  </si>
-  <si>
-    <t>Agency Test Patient(feb)</t>
   </si>
   <si>
     <t>febpatienttest@gmail.com</t>
@@ -431,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -471,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44536823-2B2D-4903-BEF0-941DF5C8A997}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,32 +506,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6077976C-2AC6-49B1-9065-6C89EDC5EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD7829-BBFA-459C-BFF2-9D3B732E1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>20-12-2022</t>
+  </si>
+  <si>
+    <t>Bhaldar</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,6 +509,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>

--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD7829-BBFA-459C-BFF2-9D3B732E1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE83086-6ED0-4B14-9325-E7528AE4BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -73,13 +73,22 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>febpatienttest@gmail.com</t>
-  </si>
-  <si>
     <t>20-12-2022</t>
   </si>
   <si>
-    <t>Bhaldar</t>
+    <t>+917676567656</t>
+  </si>
+  <si>
+    <t>Test Agency 1.1 (performance testing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency Test Patient(feb) </t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>febpatienttestt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,13 +472,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" customWidth="1"/>
@@ -509,18 +518,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>

--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE83086-6ED0-4B14-9325-E7528AE4BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83517F-D7BA-46F0-9CFE-B7B76A2229CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Chennai</t>
   </si>
   <si>
@@ -82,13 +79,16 @@
     <t>Test Agency 1.1 (performance testing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Agency Test Patient(feb) </t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>febpatienttestt@gmail.com</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>hanzo</t>
+  </si>
+  <si>
+    <t>Miya</t>
+  </si>
+  <si>
+    <t>miyaaa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,13 +519,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/CHLE2E/Data/LoginData.xlsx
+++ b/CHLE2E/Data/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\CHLE2E\CHLE2E\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D83517F-D7BA-46F0-9CFE-B7B76A2229CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1A43FD-1BB7-45E3-881D-A8C6956DF3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>Male</t>
   </si>
   <si>
-    <t>hanzo</t>
-  </si>
-  <si>
-    <t>Miya</t>
-  </si>
-  <si>
-    <t>miyaaa@gmail.com</t>
+    <t>Zilong</t>
+  </si>
+  <si>
+    <t>Alucard</t>
+  </si>
+  <si>
+    <t>zilongg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,10 +522,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
